--- a/Example_data/Example_Skyline_output.xlsx
+++ b/Example_data/Example_Skyline_output.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdabke/Documents/chapter_automation/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdabke/Documents/GitHub/Chapter-Skyline-Automation/Example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{39532701-28EE-3445-9B47-ABD52D75D7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010CD28-75ED-9A46-95DE-27E0DB24FFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="33800" windowHeight="17440" xr2:uid="{767666FA-F3FD-FA43-B8CB-E9F90BB8958C}"/>
+    <workbookView xWindow="0" yWindow="2880" windowWidth="57820" windowHeight="25760" xr2:uid="{767666FA-F3FD-FA43-B8CB-E9F90BB8958C}"/>
   </bookViews>
   <sheets>
     <sheet name="Example_Skyline_output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>File_Name</t>
   </si>
@@ -79,9 +92,6 @@
     <t>End_Time</t>
   </si>
   <si>
-    <t>Column</t>
-  </si>
-  <si>
     <t>13C3-Alanine</t>
   </si>
   <si>
@@ -97,9 +107,6 @@
     <t>heavy</t>
   </si>
   <si>
-    <t>Hilic -ESI</t>
-  </si>
-  <si>
     <t>13C4-Succinate</t>
   </si>
   <si>
@@ -112,9 +119,6 @@
     <t>[M4C13-H]</t>
   </si>
   <si>
-    <t>Column N</t>
-  </si>
-  <si>
     <t>Column O</t>
   </si>
   <si>
@@ -124,9 +128,6 @@
     <t>Column P</t>
   </si>
   <si>
-    <t xml:space="preserve"> Raw_Number_of_Points; number of points in a chromatogram</t>
-  </si>
-  <si>
     <t>Column Q</t>
   </si>
   <si>
@@ -151,12 +152,6 @@
     <t xml:space="preserve"> End_Time; end time in minutes of integrated area of chromatogram </t>
   </si>
   <si>
-    <t>Column B-E, J-L</t>
-  </si>
-  <si>
-    <t>Column M</t>
-  </si>
-  <si>
     <t>File1.d</t>
   </si>
   <si>
@@ -166,9 +161,6 @@
     <t>Name of file being processed by Skyline, will be same for all rows if a single file was processed</t>
   </si>
   <si>
-    <t xml:space="preserve"> all defined in the .sky document before analysis (depends on the transition list)</t>
-  </si>
-  <si>
     <t>Calculated by Skyline for each compound per file</t>
   </si>
   <si>
@@ -181,17 +173,32 @@
     <t xml:space="preserve"> Fwhm; full width at half intensity of peak in minutes </t>
   </si>
   <si>
-    <t>Columns F-I, M,O-S</t>
-  </si>
-  <si>
-    <t>Channel of study (This is typed in when builing the transition list in .sky document)</t>
+    <t>Column B-E, J</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raw_Number_of_Points; number of points in a chromatogram separated by comma</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Columns F-I, M-U</t>
+  </si>
+  <si>
+    <t>Column U</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> all defined in the transition list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +351,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -702,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -712,6 +726,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1087,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4ACD06-A8ED-A445-AC66-7D162213D7A8}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1114,7 @@
     <col min="2" max="2" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,231 +1151,219 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>5.8</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.05</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>91.0505</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>902</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.09</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>121.03279999999999</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>902</v>
       </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W19" s="1"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W23" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="1"/>
+    </row>
+    <row r="22" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
